--- a/tracker/PABU slot config rules.xlsx
+++ b/tracker/PABU slot config rules.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangken/py/dfpm_tools/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangken/py/dfpm_tools/tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8592F76E-86FB-2D4D-9D53-0442D9D9FD64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EB69F7-91F3-6E48-8A0F-8B2805E805C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="27860" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1600" yWindow="460" windowWidth="27860" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EXCLUSION" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="30">
   <si>
     <t>A900-IMA8T</t>
   </si>
@@ -76,25 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A900-IMA1X does not support in slot2
-A900-IMA8Z Does not support in slot2
-A900-IMA1Z8S-CX does not support in slot 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A900-IMA1C does not support in slot4
-N560-IMA2C does not support in slot4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A903-FAN-H is mandatory</t>
-  </si>
-  <si>
-    <t>A900-IMA1X does not support in slot2
-A900-IMA8Z Does not support in slot2
-A900-IMA1Z8S-CX does not support in slot 2</t>
-  </si>
-  <si>
     <t>ASR-903</t>
   </si>
   <si>
@@ -119,10 +100,6 @@
     <t>A903-FAN-H</t>
   </si>
   <si>
-    <t>A900-IMA1C does not support in slot4
-N560-IMA2C does not support in slot4</t>
-  </si>
-  <si>
     <t>SLOT_A</t>
   </si>
   <si>
@@ -144,14 +121,20 @@
     <t>A900-IMA1Z8S-CXMS</t>
   </si>
   <si>
-    <t>Does not support</t>
+    <t>If ASR-903, then MUST NOT A900-IMA2F in INTF MOD SLOT 1</t>
+  </si>
+  <si>
+    <t>If A900-IMA48D-C in INTF MOD SLOT 1; then must have A903-FAN-H</t>
+  </si>
+  <si>
+    <t>if A900-IMA8T in INTF MOD SLOT 1, then must NOT have A900-IMA1X in INTF MOD SLOT 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -162,6 +145,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
@@ -209,9 +200,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -222,33 +211,29 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
-      </right>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -273,23 +258,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -631,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -642,7 +624,7 @@
     <col min="4" max="4" width="18.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="20.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="40.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="8.83203125" style="2"/>
     <col min="11" max="11" width="47.1640625" style="2" customWidth="1"/>
     <col min="12" max="16384" width="8.83203125" style="2"/>
@@ -650,22 +632,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>11</v>
@@ -673,361 +655,343 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>12</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="12"/>
+        <v>17</v>
+      </c>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="13"/>
+        <v>17</v>
+      </c>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>12</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>15</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="12"/>
+        <v>17</v>
+      </c>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="13"/>
+        <v>17</v>
+      </c>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>24</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>13</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="G17" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G14:G15"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1039,7 +1003,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1048,25 +1012,25 @@
     <col min="3" max="3" width="21.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="40.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -1074,63 +1038,58 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1142,7 +1101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FD01DD-81DA-DC4B-B257-0076B5F2D682}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1151,21 +1110,21 @@
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="5" max="5" width="53.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -1173,93 +1132,93 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1"/>
     </row>
